--- a/spreadsheets/Warwick.xlsx
+++ b/spreadsheets/Warwick.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286BA4E9-253B-4F86-B92E-EB462519A819}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3060" yWindow="1320" windowWidth="21525" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="metadata" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Jungle" sheetId="2" r:id="rId5"/>
+    <sheet name="metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Jungle" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mgDnazv2SVpQ97if8uy0nkAtp5UWA=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="117">
   <si>
     <t>Champion</t>
   </si>
@@ -46,15 +55,9 @@
     <t>Please don't change id/name (B1/B2) cells.</t>
   </si>
   <si>
-    <t>Super easy. Just win.</t>
-  </si>
-  <si>
     <t>contributor</t>
   </si>
   <si>
-    <t>Post 35 minutes, he's op. (if game went to 35 minutes, your fault.)</t>
-  </si>
-  <si>
     <t>ScottTheTeemo</t>
   </si>
   <si>
@@ -232,9 +235,6 @@
     <t>Olaf</t>
   </si>
   <si>
-    <t>https://i.imgur.com/cmhSYzb.jpg</t>
-  </si>
-  <si>
     <t>You lost at champ select. Either dodge, or beat him pre 6. He will beat you all game after 6.</t>
   </si>
   <si>
@@ -371,41 +371,66 @@
   </si>
   <si>
     <t xml:space="preserve">Gank war, you should be able to gank as much as he does. He won't damage well, but he can CC well. </t>
+  </si>
+  <si>
+    <t>Super easy. Just win. Post 35 minutes, he's op. (if game went to 35 minutes, your fault.)</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/nwcugvg.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Docs-Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,7 +438,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -423,40 +448,50 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -467,11 +502,17 @@
     <xdr:ext cx="5248275" cy="2409825"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -495,11 +536,17 @@
     <xdr:ext cx="7200900" cy="3390900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.jpg"/>
+        <xdr:cNvPr id="3" name="image2.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -516,12 +563,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -711,27 +754,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.0"/>
-    <col customWidth="1" min="2" max="2" width="89.38"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="8.5"/>
-    <col customWidth="1" min="5" max="26" width="7.63"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="89.375" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,7 +787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -753,109 +798,109 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C8" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>71</v>
+      <c r="B9" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C10" s="1"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="C12" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="1" t="s">
+      <c r="O14" s="1" t="s">
         <v>86</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -1840,36 +1885,35 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B4"/>
-    <hyperlink r:id="rId2" ref="B5"/>
-    <hyperlink r:id="rId3" ref="B6"/>
-    <hyperlink r:id="rId4" ref="B7"/>
-    <hyperlink r:id="rId5" ref="B9"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{7F5A93E0-AE2D-46AB-BB44-54E5E3C3C888}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="7.63"/>
-    <col customWidth="1" min="3" max="3" width="9.25"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,471 +1924,469 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="3">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="3">
+        <v>5</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="3">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="3">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="3">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="3">
+        <v>3</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="C23" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C24" s="3" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="3">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B28" s="3">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="3">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3">
+        <v>9</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C29" s="3" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B30" s="3">
-        <v>9.0</v>
-      </c>
-      <c r="C30" s="7" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="B32" s="3">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B31" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C31" s="3" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="B33" s="3">
+        <v>6</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B32" s="3">
-        <v>4.0</v>
-      </c>
-      <c r="C32" s="3" t="s">
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="B34" s="3">
+        <v>8</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B33" s="3">
-        <v>6.0</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="3">
-        <v>8.0</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="B35" s="3">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H35" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="3">
-        <v>3.0</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="B36" s="3">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="H35" s="3" t="s">
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="B37" s="3">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="H37" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="B38" s="3">
+        <v>10</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H37" s="3" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="B39" s="3">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="3">
-        <v>10.0</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="B40" s="3">
+        <v>5</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="3">
-        <v>7.0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="3">
-        <v>5.0</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -3298,9 +3340,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>